--- a/medicine/Mort/Érection_post-mortem/Érection_post-mortem.xlsx
+++ b/medicine/Mort/Érection_post-mortem/Érection_post-mortem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rection_post-mortem</t>
+          <t>Érection_post-mortem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une érection post mortem, aussi appelée érection terminale[1], est une érection, techniquement priapique, observée sur des corps humains mâles qui ont été exécutés, particulièrement par pendaison[2]ou par strangulation.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une érection post mortem, aussi appelée érection terminale, est une érection, techniquement priapique, observée sur des corps humains mâles qui ont été exécutés, particulièrement par pendaisonou par strangulation.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rection_post-mortem</t>
+          <t>Érection_post-mortem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le phénomène est attribué à la pression faite sur le cervelet par la corde[3]. Des lésions à la moelle épinière sont liées au priapisme[4]. Des lésions au cervelet ou à la moelle épinière sont également souvent associées au priapisme chez des patients vivants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le phénomène est attribué à la pression faite sur le cervelet par la corde. Des lésions à la moelle épinière sont liées au priapisme. Des lésions au cervelet ou à la moelle épinière sont également souvent associées au priapisme chez des patients vivants.
 La mort par pendaison, que ce soit par exécution ou par suicide, affecte souvent les organes génitaux masculins comme féminins. Chez les femmes, les lèvres de la vulve se gonflent et il peut survenir un écoulement de sang du vagin. Chez les hommes, on trouve un état d'érection du pénis plus ou moins complet, avec écoulements d'urine, de mucus ou de fluide prostatique, qui surviennent assez souvent.
-D'autres causes de décès peuvent aussi être responsables de ces effets, comme des blessures par balle au cerveau ou touchant des vaisseaux sanguins importants, ou des empoisonnements violents. En médecine légale, la présence d'une érection terminale est un indicateur d'une mort très probablement rapide et violente[5].
+D'autres causes de décès peuvent aussi être responsables de ces effets, comme des blessures par balle au cerveau ou touchant des vaisseaux sanguins importants, ou des empoisonnements violents. En médecine légale, la présence d'une érection terminale est un indicateur d'une mort très probablement rapide et violente.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rection_post-mortem</t>
+          <t>Érection_post-mortem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un passage du premier acte d'En attendant Godot de Samuel Beckett.
 Un passage dans le roman Gamiani ou Deux nuits d'excès d'Alfred de Musset.
